--- a/data/Powertrain Part Options.xlsx
+++ b/data/Powertrain Part Options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wang Huaijin\Yale\CCA\Bulldogs Racing\TV_Regen_LC\lap_sim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC9A06A-353A-4B9A-A704-56A25314BE86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1135E536-20B9-4919-BBDD-0126FF4D3D75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="7080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICE Stats" sheetId="1" r:id="rId1"/>
@@ -7245,8 +7245,8 @@
   </sheetPr>
   <dimension ref="A1:O987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7657,7 +7657,7 @@
         <v>7500</v>
       </c>
       <c r="G10" s="18">
-        <v>48</v>
+        <v>9.5</v>
       </c>
       <c r="H10" s="1">
         <v>52</v>
@@ -7693,7 +7693,7 @@
         <v>400</v>
       </c>
       <c r="E11" s="1">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="F11" s="1">
         <v>8000</v>
